--- a/Test cases.xlsx
+++ b/Test cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>Tаблица 1</t>
   </si>
@@ -64,7 +64,7 @@
     <t>6.Кликнуть кнопку ‘Continue’</t>
   </si>
   <si>
-    <t>6.Пользователь перенаправлен на главная страницу сайта.</t>
+    <t>6.Пользователь зарегистрирован и перенаправлен на главная страницу сайта.</t>
   </si>
   <si>
     <t>SIGN UP AS SUPPLIER WITH email and password</t>
@@ -131,7 +131,7 @@
     <t>9. Кликнуть кнопку ‘Continue’</t>
   </si>
   <si>
-    <t>9. Пользователь перенаправлен на главная страницу сайта.</t>
+    <t>9. Пользователь зарегистрирован и перенаправлен на главная страницу сайта.</t>
   </si>
   <si>
     <t>LOG IN AS SELLER with email and password</t>
@@ -207,6 +207,36 @@
   </si>
   <si>
     <t>9. Окно с сообщением закрывается</t>
+  </si>
+  <si>
+    <t>SIGN UP AS SELLER WITH GOOGLE</t>
+  </si>
+  <si>
+    <t>3. Кликнуть на иконку Google</t>
+  </si>
+  <si>
+    <t>3.Открывается окно для ввода данных аккаунт покупателя</t>
+  </si>
+  <si>
+    <t>4.Ввести валидные значения Google аккаунт</t>
+  </si>
+  <si>
+    <t>4.Введенные значения отображаются в соответствующих полях, кнопка ‘Continue’ становится активной для подтверждения</t>
+  </si>
+  <si>
+    <t>5. Кликнуть кнопку ‘Continue’</t>
+  </si>
+  <si>
+    <t>5. Пользователь зарегистрирован и перенаправлен на главная страницу сайта.</t>
+  </si>
+  <si>
+    <t>SIGN UP AS SELLER WITH APPLE</t>
+  </si>
+  <si>
+    <t>3. Кликнуть иконку Apple</t>
+  </si>
+  <si>
+    <t>3.Открывается окно для ввода данных аккаунт  покупателя</t>
   </si>
 </sst>
 </file>
@@ -245,7 +275,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +315,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -483,7 +525,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -575,6 +617,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -603,6 +654,8 @@
       <rgbColor rgb="ffffd931"/>
       <rgbColor rgb="fffff056"/>
       <rgbColor rgb="ff72fce9"/>
+      <rgbColor rgb="ff88f94e"/>
+      <rgbColor rgb="ff1cb000"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1661,7 +1714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H39"/>
+  <dimension ref="A2:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
@@ -1791,7 +1844,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" ht="20.2" customHeight="1">
+    <row r="9" ht="32.2" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" t="s" s="19">
@@ -1933,7 +1986,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" ht="20.2" customHeight="1">
+    <row r="19" ht="32.2" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" t="s" s="19">
@@ -2233,20 +2286,297 @@
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
     </row>
+    <row r="40" ht="20.2" customHeight="1">
+      <c r="A40" s="27">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s" s="31">
+        <v>60</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" ht="20.2" customHeight="1">
+      <c r="A41" s="17"/>
+      <c r="B41" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s" s="19">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" ht="44.2" customHeight="1">
+      <c r="A42" s="17"/>
+      <c r="B42" s="21"/>
+      <c r="C42" t="s" s="22">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s" s="22">
+        <v>9</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" ht="20.2" customHeight="1">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" t="s" s="19">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s" s="19">
+        <v>62</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" ht="32.2" customHeight="1">
+      <c r="A44" s="17"/>
+      <c r="B44" s="21"/>
+      <c r="C44" t="s" s="22">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s" s="22">
+        <v>64</v>
+      </c>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" ht="32.2" customHeight="1">
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" t="s" s="19">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s" s="19">
+        <v>66</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" ht="20.2" customHeight="1">
+      <c r="A46" s="27">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s" s="32">
+        <v>67</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" ht="20.2" customHeight="1">
+      <c r="A47" s="17"/>
+      <c r="B47" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s" s="19">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" ht="44.2" customHeight="1">
+      <c r="A48" s="17"/>
+      <c r="B48" s="21"/>
+      <c r="C48" t="s" s="22">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s" s="22">
+        <v>9</v>
+      </c>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" ht="20.2" customHeight="1">
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" t="s" s="19">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s" s="19">
+        <v>69</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" ht="32.2" customHeight="1">
+      <c r="A50" s="17"/>
+      <c r="B50" s="21"/>
+      <c r="C50" t="s" s="22">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s" s="22">
+        <v>64</v>
+      </c>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" ht="32.2" customHeight="1">
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" t="s" s="19">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s" s="19">
+        <v>66</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" ht="20.2" customHeight="1">
+      <c r="A52" s="17"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" ht="20.2" customHeight="1">
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" ht="20.2" customHeight="1">
+      <c r="A54" s="17"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" ht="20.2" customHeight="1">
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" ht="20.2" customHeight="1">
+      <c r="A56" s="17"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" ht="20.2" customHeight="1">
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+    </row>
+    <row r="58" ht="20.2" customHeight="1">
+      <c r="A58" s="17"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" ht="20.2" customHeight="1">
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+    </row>
+    <row r="60" ht="20.2" customHeight="1">
+      <c r="A60" s="17"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" ht="20.2" customHeight="1">
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B52:D52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" location="" tooltip="" display="https://www.abra-market.com/"/>
     <hyperlink ref="B21" r:id="rId2" location="" tooltip="" display="https://www.abra-market.com/"/>
     <hyperlink ref="B26" r:id="rId3" location="" tooltip="" display="https://www.abra-market.com/"/>
     <hyperlink ref="B31" r:id="rId4" location="" tooltip="" display="https://www.abra-market.com/"/>
+    <hyperlink ref="B41" r:id="rId5" location="" tooltip="" display="https://www.abra-market.com/"/>
+    <hyperlink ref="B47" r:id="rId6" location="" tooltip="" display="https://www.abra-market.com/"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
